--- a/src/main/java/com/bj/zzq/sort/sql/各算法排序时间测算.xlsx
+++ b/src/main/java/com/bj/zzq/sort/sql/各算法排序时间测算.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4156491-115B-42D0-BBDC-C92E23D55131}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>算法类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,12 +51,52 @@
     <t>快排，n&lt;=3时，对于小划分不处理，最后统一使用插入排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>算法类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快排,n&lt;=3时，对于小划分使用手动排序</t>
+  </si>
+  <si>
+    <t>快排,n&lt;=9时，对于小划分使用插入排序</t>
+  </si>
+  <si>
+    <t>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</t>
+  </si>
+  <si>
+    <t>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</t>
+  </si>
+  <si>
+    <t>单位（秒/s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位（毫秒/ms）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位（纳秒/ns）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位（纳秒/ns）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,12 +160,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -133,7 +196,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>数据项</a:t>
+              <a:t>数据量</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
@@ -147,13 +210,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -168,9 +233,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -191,6 +257,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D11-4AE4-9E86-A2D9AA8E002B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -206,9 +277,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -229,6 +301,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D11-4AE4-9E86-A2D9AA8E002B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -244,9 +321,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -267,6 +345,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D11-4AE4-9E86-A2D9AA8E002B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -282,9 +365,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -305,6 +389,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D11-4AE4-9E86-A2D9AA8E002B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -320,9 +409,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -343,6 +433,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8D11-4AE4-9E86-A2D9AA8E002B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -358,9 +453,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -381,6 +477,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8D11-4AE4-9E86-A2D9AA8E002B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -396,9 +497,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -419,8 +521,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8D11-4AE4-9E86-A2D9AA8E002B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="103446400"/>
         <c:axId val="103447936"/>
       </c:barChart>
@@ -429,9 +544,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0;\-#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="103447936"/>
         <c:crosses val="autoZero"/>
@@ -439,16 +556,19 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="103447936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General\ &quot;ns&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="103446400"/>
         <c:crosses val="autoZero"/>
@@ -457,9 +577,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -492,6 +614,7872 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>数据</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n=100</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20194.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A323-4B5D-89A0-35C3376650EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常归并排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25262.799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A323-4B5D-89A0-35C3376650EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27445.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A323-4B5D-89A0-35C3376650EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30204.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A323-4B5D-89A0-35C3376650EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30714.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A323-4B5D-89A0-35C3376650EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42915.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A323-4B5D-89A0-35C3376650EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62264.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A323-4B5D-89A0-35C3376650EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="321906144"/>
+        <c:axId val="321915000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="321906144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321915000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321915000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>单位（纳秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321906144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>数据</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n=1000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>123302.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9473-406B-8D88-0E1043DB60E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>124458.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9473-406B-8D88-0E1043DB60E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137303.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9473-406B-8D88-0E1043DB60E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>176014.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9473-406B-8D88-0E1043DB60E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>182334.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9473-406B-8D88-0E1043DB60E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常归并排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>228348.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9473-406B-8D88-0E1043DB60E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1059000.8700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9473-406B-8D88-0E1043DB60E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="321906144"/>
+        <c:axId val="321915000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="321906144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321915000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321915000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>单位（纳秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321906144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>数据</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n=10000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.7206060299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1F3-49AA-A4B5-156690E7C938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8307834700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1F3-49AA-A4B5-156690E7C938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.9832799800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E1F3-49AA-A4B5-156690E7C938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.03813975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E1F3-49AA-A4B5-156690E7C938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常归并排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5680349100000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E1F3-49AA-A4B5-156690E7C938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.3239611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E1F3-49AA-A4B5-156690E7C938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="321906144"/>
+        <c:axId val="321915000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet4!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet4!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>算法类型</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet4!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-E1F3-49AA-A4B5-156690E7C938}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="321906144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321915000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321915000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>单位（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>毫秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321906144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>数据</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n=100000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.95028956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E620-443B-957A-AB9E7C3F3F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.97898644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E620-443B-957A-AB9E7C3F3F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.804132709999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E620-443B-957A-AB9E7C3F3F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17.458329249999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E620-443B-957A-AB9E7C3F3F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常归并排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20.487011620000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E620-443B-957A-AB9E7C3F3F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40.758555159999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E620-443B-957A-AB9E7C3F3F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="321906144"/>
+        <c:axId val="321915000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>算法类型</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-E620-443B-957A-AB9E7C3F3F72}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="321906144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321915000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321915000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>单位（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>毫秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321906144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>数据</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n=1000000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>254.56378469999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常归并排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>293.50785430000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>520.28780630000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>668.71213799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>783.84921410000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1370.4911919000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="321906144"/>
+        <c:axId val="321915000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet6!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet6!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>算法类型</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet6!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="321906144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321915000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321915000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>单位（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>毫秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321906144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>数据</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n=10000000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常归并排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0783493245900004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-176F-4B10-9677-CBD9B3619E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.5596533903500003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-176F-4B10-9677-CBD9B3619E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.6781641994600003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-176F-4B10-9677-CBD9B3619E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.5149915941999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-176F-4B10-9677-CBD9B3619E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.0069496587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-176F-4B10-9677-CBD9B3619E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.890947173499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-176F-4B10-9677-CBD9B3619E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="321906144"/>
+        <c:axId val="321915000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet7!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet7!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>算法类型</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet7!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-176F-4B10-9677-CBD9B3619E1D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="321906144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321915000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321915000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>单位（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321906144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -509,7 +8497,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -527,8 +8521,264 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3167044-4F09-443D-A702-F760423B2275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DD0408-6B95-4E10-A33E-81F87C2B5241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C51E45D-1A10-4F72-BBA5-649EAB19E3AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8863113-DF40-4934-A80A-7B0023C16397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679097D1-BB5C-4F68-8736-5E95615CDB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA132F6F-D664-4A9A-8883-641FCA0D8B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,7 +8820,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,9 +8852,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,6 +8904,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,26 +9097,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -838,7 +9130,7 @@
         <v>6581.0409836065501</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -846,7 +9138,7 @@
         <v>12396.512396694199</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -854,7 +9146,7 @@
         <v>14109.214876033</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -862,7 +9154,7 @@
         <v>14804.0165289256</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -870,7 +9162,7 @@
         <v>16288.3719008264</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -878,7 +9170,7 @@
         <v>17109.344262294999</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -895,29 +9187,503 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20194.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>25262.799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>27445.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>30204.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>30714.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>42915.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>62264.89</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCA34A6-805C-45FC-93B1-FEDD785EF5EE}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>123302.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>124458.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>137303.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>176014.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>182334.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>228348.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1059000.8700000001</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A5BDAD-0229-4858-A098-94DE4EEFD808}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1.7206060299999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1.8307834700000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.9832799800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2.03813975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2.5680349100000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3.3239611</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8106E5B2-B14C-4D43-A549-A877ED3F05C8}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>14.95028956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>14.97898644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>15.804132709999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>17.458329249999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>20.487011620000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>40.758555159999901</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366854D3-7AF3-42FA-9AA6-AAC99CC3A865}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>254.56378469999899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>293.50785430000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>520.28780630000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>668.71213799999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>783.84921410000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1370.4911919000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6435995-130F-4275-BEFA-DA63844C6E4E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4.0783493245900004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6.5596533903500003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>7.6781641994600003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>9.5149915941999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>14.0069496587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>25.890947173499999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/java/com/bj/zzq/sort/sql/各算法排序时间测算.xlsx
+++ b/src/main/java/com/bj/zzq/sort/sql/各算法排序时间测算.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4156491-115B-42D0-BBDC-C92E23D55131}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94935683-BF02-49CF-914B-C7F06F14B51C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="9" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="15">
   <si>
     <t>算法类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,22 +35,6 @@
   </si>
   <si>
     <t>正常归并排序</t>
-  </si>
-  <si>
-    <t>快排，n&lt;=9时，对于小划分使用插入排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快排，n&lt;=9时，对于小划分不处理，最后统一使用插入排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快排，n&lt;=3时，对于小划分使用手动排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快排，n&lt;=3时，对于小划分不处理，最后统一使用插入排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>算法类型</t>
@@ -80,15 +65,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位（纳秒/ns）</t>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位（纳秒/ns）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</t>
   </si>
   <si>
-    <t>时间</t>
+    <t>单位（微秒/us）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +188,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>时多次试验的平均值</a:t>
+              <a:t>时多次试验的平均值（微秒）</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
@@ -252,7 +236,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6581.0409836065501</c:v>
+                  <c:v>6.5810409836065498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -272,7 +256,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排，n&lt;=9时，对于小划分使用插入排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -296,7 +280,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12396.512396694199</c:v>
+                  <c:v>12.396512396694201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -316,7 +300,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排，n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -340,7 +324,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14109.214876033</c:v>
+                  <c:v>14.109214876033001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,7 +344,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排，n&lt;=3时，对于小划分使用手动排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -384,7 +368,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14804.0165289256</c:v>
+                  <c:v>14.804016528925599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -404,7 +388,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排，n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -428,7 +412,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16288.3719008264</c:v>
+                  <c:v>16.288371900826402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,7 +456,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17109.344262294999</c:v>
+                  <c:v>17.109344262295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,7 +500,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32916.0330578512</c:v>
+                  <c:v>32.916033057851202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,6 +508,50 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-8D11-4AE4-9E86-A2D9AA8E002B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43.185890000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E5D-49A4-8DF1-ECAD26118026}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -566,7 +594,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General\ &quot;ns&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -777,7 +805,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20194.45</c:v>
+                  <c:v>20.19445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,7 +858,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25262.799999999999</c:v>
+                  <c:v>25.262799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,7 +911,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27445.68</c:v>
+                  <c:v>27.445679999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +964,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30204.82</c:v>
+                  <c:v>30.204819999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,7 +1017,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30714.05</c:v>
+                  <c:v>30.71405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1070,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>42915.12</c:v>
+                  <c:v>42.915120000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,7 +1125,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>62264.89</c:v>
+                  <c:v>62.264890000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,6 +1133,61 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A323-4B5D-89A0-35C3376650EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>147.52898999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A76D-488F-AE25-BFD4A322765B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1214,11 +1297,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN"/>
-                  <a:t>单位（纳秒</a:t>
+                  <a:t>单位（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>微</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>us</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>NS)</a:t>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
@@ -1527,7 +1622,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>123302.21</c:v>
+                  <c:v>123.30221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,7 +1675,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>124458.76</c:v>
+                  <c:v>124.45876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,7 +1728,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>137303.29</c:v>
+                  <c:v>137.30329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,7 +1781,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>176014.62</c:v>
+                  <c:v>176.01462000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,7 +1834,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>182334.29</c:v>
+                  <c:v>182.33429000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,7 +1887,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>228348.08</c:v>
+                  <c:v>228.34807999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,7 +1907,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常插入排序</c:v>
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1847,7 +1942,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1059000.8700000001</c:v>
+                  <c:v>786.35191999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,6 +1950,61 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-9473-406B-8D88-0E1043DB60E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1059.0008700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B0C-4E92-A0A0-B0050BA165ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1964,11 +2114,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN"/>
-                  <a:t>单位（纳秒</a:t>
+                  <a:t>单位（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>微</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>us</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>NS)</a:t>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
@@ -2553,6 +2715,61 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.4979057499999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E1F3-49AA-A4B5-156690E7C938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2565,79 +2782,7 @@
         <c:overlap val="-27"/>
         <c:axId val="321906144"/>
         <c:axId val="321915000"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet4!$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet4!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>算法类型</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet4!$B$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-E1F3-49AA-A4B5-156690E7C938}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="321906144"/>
@@ -3329,6 +3474,61 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>114.79287643000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E620-443B-957A-AB9E7C3F3F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3341,79 +3541,7 @@
         <c:overlap val="-27"/>
         <c:axId val="321906144"/>
         <c:axId val="321915000"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet5!$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet5!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>算法类型</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet5!$B$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-E620-443B-957A-AB9E7C3F3F72}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="321906144"/>
@@ -4105,6 +4233,61 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1665.70049941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4117,79 +4300,7 @@
         <c:overlap val="-27"/>
         <c:axId val="321906144"/>
         <c:axId val="321915000"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet6!$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet6!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>算法类型</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet6!$B$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="321906144"/>
@@ -4837,7 +4948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4870,7 +4981,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25.890947173499999</c:v>
+                  <c:v>20.2670184899454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4878,6 +4989,61 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-176F-4B10-9677-CBD9B3619E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.890947173499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-176F-4B10-9677-CBD9B3619E1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4893,79 +5059,1064 @@
         <c:overlap val="-27"/>
         <c:axId val="321906144"/>
         <c:axId val="321915000"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet7!$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="321906144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321915000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321915000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>单位（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet7!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>算法类型</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet7!$B$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-176F-4B10-9677-CBD9B3619E1D}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321906144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>数据</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n=100000000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常归并排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45.810906938999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D54-45C2-83BF-EC8B3D957504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>231.331482045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D54-45C2-83BF-EC8B3D957504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>233.78566523000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D54-45C2-83BF-EC8B3D957504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>237.10451896699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D54-45C2-83BF-EC8B3D957504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>260.73004638800001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8D54-45C2-83BF-EC8B3D957504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2033.280099028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8D54-45C2-83BF-EC8B3D957504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="321906144"/>
+        <c:axId val="321915000"/>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="321906144"/>
@@ -5462,6 +6613,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7978,6 +9169,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8492,8 +10186,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8777,6 +10471,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1894AE5-87F2-4CEB-BA40-405BD2BE21B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -9098,28 +10835,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.75" customWidth="1"/>
+    <col min="1" max="1" width="50.875" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -9127,23 +10864,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>6581.0409836065501</v>
+        <v>6.5810409836065498</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>12396.512396694199</v>
+        <v>12.396512396694201</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>14109.214876033</v>
+        <v>14.109214876033001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -9151,15 +10888,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>14804.0165289256</v>
+        <v>14.804016528925599</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>16288.3719008264</v>
+        <v>16.288371900826402</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -9167,7 +10904,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>17109.344262294999</v>
+        <v>17.109344262295</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -9175,7 +10912,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>32916.0330578512</v>
+        <v>32.916033057851202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43.185890000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9188,10 +10933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9202,13 +10947,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -9216,7 +10961,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20194.45</v>
+        <v>20.19445</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -9224,23 +10969,23 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>25262.799999999999</v>
+        <v>25.262799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>27445.68</v>
+        <v>27.445679999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>30204.82</v>
+        <v>30.204819999999899</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -9248,23 +10993,31 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>30714.05</v>
+        <v>30.71405</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>42915.12</v>
+        <v>42.915120000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>62.264890000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>62264.89</v>
+      <c r="B9">
+        <v>147.52898999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9277,10 +11030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCA34A6-805C-45FC-93B1-FEDD785EF5EE}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9291,37 +11044,37 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>123302.21</v>
+        <v>123.30221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>124458.76</v>
+        <v>124.45876</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>137303.29</v>
+        <v>137.30329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -9329,15 +11082,15 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>176014.62</v>
+        <v>176.01462000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>182334.29</v>
+        <v>182.33429000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -9345,15 +11098,23 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>228348.08</v>
+        <v>228.34807999999899</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>786.35191999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>1059000.8700000001</v>
+      <c r="B9">
+        <v>1059.0008700000001</v>
       </c>
     </row>
   </sheetData>
@@ -9366,10 +11127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A5BDAD-0229-4858-A098-94DE4EEFD808}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9380,18 +11141,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1.7206060299999999</v>
@@ -9399,7 +11160,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1.8307834700000001</v>
@@ -9407,7 +11168,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.9832799800000001</v>
@@ -9415,7 +11176,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2.03813975</v>
@@ -9435,6 +11196,14 @@
       </c>
       <c r="B7">
         <v>3.3239611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>9.4979057499999993</v>
       </c>
     </row>
   </sheetData>
@@ -9447,10 +11216,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8106E5B2-B14C-4D43-A549-A877ED3F05C8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9461,18 +11230,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>14.95028956</v>
@@ -9480,7 +11249,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>14.97898644</v>
@@ -9488,7 +11257,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>15.804132709999999</v>
@@ -9496,7 +11265,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>17.458329249999998</v>
@@ -9516,6 +11285,14 @@
       </c>
       <c r="B7">
         <v>40.758555159999901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>114.79287643000001</v>
       </c>
     </row>
   </sheetData>
@@ -9528,10 +11305,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366854D3-7AF3-42FA-9AA6-AAC99CC3A865}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9545,15 +11322,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>254.56378469999899</v>
@@ -9569,7 +11346,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>520.28780630000006</v>
@@ -9577,7 +11354,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>668.71213799999998</v>
@@ -9585,7 +11362,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>783.84921410000004</v>
@@ -9597,6 +11374,14 @@
       </c>
       <c r="B7">
         <v>1370.4911919000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1665.70049941</v>
       </c>
     </row>
   </sheetData>
@@ -9609,10 +11394,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6435995-130F-4275-BEFA-DA63844C6E4E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9626,10 +11411,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -9642,7 +11427,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>6.5596533903500003</v>
@@ -9650,7 +11435,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>7.6781641994600003</v>
@@ -9658,7 +11443,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>9.5149915941999996</v>
@@ -9666,10 +11451,99 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>14.0069496587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>20.2670184899454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>25.890947173499999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD42EA5-0816-4C82-A2D7-4FB9D6B32FCD}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>45.810906938999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>231.331482045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>233.78566523000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>237.10451896699999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>260.73004638800001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -9677,7 +11551,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>25.890947173499999</v>
+        <v>2033.280099028</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/bj/zzq/sort/sql/各算法排序时间测算.xlsx
+++ b/src/main/java/com/bj/zzq/sort/sql/各算法排序时间测算.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94935683-BF02-49CF-914B-C7F06F14B51C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A617B3A1-CF25-4CC5-BC30-44D3B9601694}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="16">
   <si>
     <t>算法类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,9 @@
   <si>
     <t>单位（微秒/us）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通快排，枢纽为最右边数字</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常插入排序</c:v>
+                  <c:v>普通快排，枢纽为最右边数字</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -236,7 +239,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.5810409836065498</c:v>
+                  <c:v>5.4126862745097997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,7 +259,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                  <c:v>正常插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -280,7 +283,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.396512396694201</c:v>
+                  <c:v>6.5810409836065498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,7 +303,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -324,7 +327,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.109214876033001</c:v>
+                  <c:v>12.396512396694201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -344,7 +347,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -368,7 +371,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.804016528925599</c:v>
+                  <c:v>14.109214876033001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -388,7 +391,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,7 +415,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16.288371900826402</c:v>
+                  <c:v>14.804016528925599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,7 +435,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -456,7 +459,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.109344262295</c:v>
+                  <c:v>16.288371900826402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,7 +479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常归并排序</c:v>
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -500,7 +503,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32.916033057851202</c:v>
+                  <c:v>17.109344262295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,7 +523,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                  <c:v>正常归并排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -544,7 +547,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43.185890000000001</c:v>
+                  <c:v>32.916033057851202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,6 +555,50 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E5D-49A4-8DF1-ECAD26118026}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43.185890000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94DE-4FFD-96CC-FA8AAB3AF6A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -772,7 +819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常插入排序</c:v>
+                  <c:v>普通快排，枢纽为最右边数字</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -805,7 +852,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20.19445</c:v>
+                  <c:v>10.83634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,7 +872,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常归并排序</c:v>
+                  <c:v>正常插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -858,7 +905,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25.262799999999999</c:v>
+                  <c:v>20.19445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,7 +925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                  <c:v>正常归并排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -911,7 +958,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27.445679999999999</c:v>
+                  <c:v>25.262799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,7 +978,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -964,7 +1011,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.204819999999899</c:v>
+                  <c:v>27.445679999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +1031,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1017,7 +1064,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.71405</c:v>
+                  <c:v>30.204819999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1084,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1070,7 +1117,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>42.915120000000002</c:v>
+                  <c:v>30.71405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,7 +1137,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1125,7 +1172,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>62.264890000000001</c:v>
+                  <c:v>42.915120000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,7 +1192,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1180,7 +1227,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>147.52898999999999</c:v>
+                  <c:v>62.264890000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,6 +1235,61 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A76D-488F-AE25-BFD4A322765B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>147.52898999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9EE-44C2-B31B-DEC70C683F26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1589,7 +1691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                  <c:v>普通快排，枢纽为最右边数字</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1622,7 +1724,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>123.30221</c:v>
+                  <c:v>85.369349999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,7 +1744,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1675,7 +1777,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>124.45876</c:v>
+                  <c:v>123.30221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,7 +1797,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1728,7 +1830,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>137.30329</c:v>
+                  <c:v>124.45876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,7 +1850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1781,7 +1883,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>176.01462000000001</c:v>
+                  <c:v>137.30329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1801,7 +1903,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1834,7 +1936,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>182.33429000000001</c:v>
+                  <c:v>176.01462000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,7 +1956,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常归并排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1887,7 +1989,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>228.34807999999899</c:v>
+                  <c:v>182.33429000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,7 +2009,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                  <c:v>正常归并排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1942,7 +2044,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>786.35191999999995</c:v>
+                  <c:v>228.34807999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +2064,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常插入排序</c:v>
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1997,7 +2099,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1059.0008700000001</c:v>
+                  <c:v>786.35191999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,6 +2107,61 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3B0C-4E92-A0A0-B0050BA165ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常插入排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1059.0008700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCE8-4B4D-85D3-D4310E2B685C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2406,7 +2563,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                  <c:v>普通快排，枢纽为最右边数字</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2439,7 +2596,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.7206060299999999</c:v>
+                  <c:v>0.98256224999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,7 +2616,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2492,7 +2649,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.8307834700000001</c:v>
+                  <c:v>1.7206060299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,7 +2669,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2545,7 +2702,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.9832799800000001</c:v>
+                  <c:v>1.8307834700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2565,7 +2722,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2598,7 +2755,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.03813975</c:v>
+                  <c:v>1.9832799800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2618,7 +2775,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常归并排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2651,7 +2808,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5680349100000002</c:v>
+                  <c:v>2.03813975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2671,7 +2828,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                  <c:v>正常归并排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2704,7 +2861,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.3239611</c:v>
+                  <c:v>2.5680349100000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,7 +2881,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2759,7 +2916,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.4979057499999993</c:v>
+                  <c:v>3.3239611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2767,6 +2924,61 @@
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E1F3-49AA-A4B5-156690E7C938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.4979057499999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA48-48D5-AA97-CC396A801EB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3165,7 +3377,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                  <c:v>普通快排，枢纽为最右边数字</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3198,7 +3410,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.95028956</c:v>
+                  <c:v>11.78694205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,7 +3430,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3251,7 +3463,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.97898644</c:v>
+                  <c:v>14.95028956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3271,7 +3483,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3304,7 +3516,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15.804132709999999</c:v>
+                  <c:v>14.97898644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3324,7 +3536,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3357,7 +3569,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.458329249999998</c:v>
+                  <c:v>15.804132709999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3377,7 +3589,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常归并排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3410,7 +3622,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20.487011620000001</c:v>
+                  <c:v>17.458329249999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,7 +3642,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                  <c:v>正常归并排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3463,7 +3675,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40.758555159999901</c:v>
+                  <c:v>20.487011620000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3483,7 +3695,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3518,7 +3730,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>114.79287643000001</c:v>
+                  <c:v>40.758555159999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3526,6 +3738,61 @@
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E620-443B-957A-AB9E7C3F3F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>114.79287643000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED23-4180-B03E-53D1C0B89959}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3924,7 +4191,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>普通快排，枢纽为最右边数字</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3957,7 +4224,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>254.56378469999899</c:v>
+                  <c:v>141.95498197000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,7 +4244,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常归并排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4010,7 +4277,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>293.50785430000002</c:v>
+                  <c:v>254.56378469999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4030,7 +4297,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                  <c:v>正常归并排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4063,7 +4330,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>520.28780630000006</c:v>
+                  <c:v>293.50785430000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,7 +4350,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4116,7 +4383,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>668.71213799999998</c:v>
+                  <c:v>520.28780630000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,7 +4403,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4169,7 +4436,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>783.84921410000004</c:v>
+                  <c:v>668.71213799999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,7 +4456,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4222,7 +4489,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1370.4911919000001</c:v>
+                  <c:v>783.84921410000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4242,7 +4509,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4277,7 +4544,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1665.70049941</c:v>
+                  <c:v>1370.4911919000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4285,6 +4552,61 @@
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FBAF-4DEF-AB0C-D9FA3FB99C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1665.70049941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A43B-48E3-A2CB-4AE6B3DF4D07}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4683,7 +5005,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常归并排序</c:v>
+                  <c:v>普通快排，枢纽为最右边数字</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4716,7 +5038,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0783493245900004</c:v>
+                  <c:v>2.2383880220400001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4736,7 +5058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                  <c:v>正常归并排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4769,7 +5091,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.5596533903500003</c:v>
+                  <c:v>4.0783493245900004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4789,7 +5111,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4822,7 +5144,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.6781641994600003</c:v>
+                  <c:v>6.5596533903500003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4842,7 +5164,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4875,7 +5197,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.5149915941999996</c:v>
+                  <c:v>7.6781641994600003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4895,7 +5217,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4928,7 +5250,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.0069496587</c:v>
+                  <c:v>9.5149915941999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,7 +5270,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4981,7 +5303,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20.2670184899454</c:v>
+                  <c:v>14.0069496587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5001,7 +5323,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                  <c:v>基数排序，基数为10,位数为Integer.MAX_VALUE的位数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5036,7 +5358,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25.890947173499999</c:v>
+                  <c:v>20.2670184899454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5044,6 +5366,61 @@
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-176F-4B10-9677-CBD9B3619E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.890947173499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BECC-4308-8403-B8A9251131E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5557,7 +5934,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
+                  <c:v>普通快排，枢纽为最右边数字</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5648,7 +6025,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>231.331482045</c:v>
+                  <c:v>188.008137769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5668,7 +6045,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分使用手动排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5759,7 +6136,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>233.78566523000001</c:v>
+                  <c:v>231.331482045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5779,7 +6156,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
+                  <c:v>快排,n&lt;=3时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5870,7 +6247,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>237.10451896699999</c:v>
+                  <c:v>233.78566523000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5890,7 +6267,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5981,7 +6358,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>260.73004638800001</c:v>
+                  <c:v>237.10451896699999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6001,7 +6378,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                  <c:v>快排,n&lt;=9时，对于小划分不处理，最后统一使用插入排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6092,7 +6469,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2033.280099028</c:v>
+                  <c:v>260.73004638800001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6100,6 +6477,119 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-8D54-45C2-83BF-EC8B3D957504}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正常希尔排序,增量为h=3h+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法类型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2033.280099028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2042-4C2F-BDBD-C97B019DF7BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10484,7 +10974,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10835,10 +11325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10861,65 +11351,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>6.5810409836065498</v>
+        <v>5.4126862745097997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>12.396512396694201</v>
+        <v>6.5810409836065498</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>14.109214876033001</v>
+        <v>12.396512396694201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>14.804016528925599</v>
+        <v>14.109214876033001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>16.288371900826402</v>
+        <v>14.804016528925599</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>17.109344262295</v>
+        <v>16.288371900826402</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>32.916033057851202</v>
+        <v>17.109344262295</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>32.916033057851202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>43.185890000000001</v>
       </c>
     </row>
@@ -10933,10 +11431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10958,65 +11456,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>20.19445</v>
+        <v>10.83634</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>25.262799999999999</v>
+        <v>20.19445</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>27.445679999999999</v>
+        <v>25.262799999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>30.204819999999899</v>
+        <v>27.445679999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>30.71405</v>
+        <v>30.204819999999899</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>42.915120000000002</v>
+        <v>30.71405</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>62.264890000000001</v>
+        <v>42.915120000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>62.264890000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>147.52898999999999</v>
       </c>
     </row>
@@ -11030,10 +11536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCA34A6-805C-45FC-93B1-FEDD785EF5EE}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11055,65 +11561,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>123.30221</v>
+        <v>85.369349999999997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>124.45876</v>
+        <v>123.30221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>137.30329</v>
+        <v>124.45876</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>176.01462000000001</v>
+        <v>137.30329</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>182.33429000000001</v>
+        <v>176.01462000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>228.34807999999899</v>
+        <v>182.33429000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>786.35191999999995</v>
+        <v>228.34807999999899</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>786.35191999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1059.0008700000001</v>
       </c>
     </row>
@@ -11127,10 +11641,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A5BDAD-0229-4858-A098-94DE4EEFD808}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11152,57 +11666,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>1.7206060299999999</v>
+        <v>0.98256224999999997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>1.8307834700000001</v>
+        <v>1.7206060299999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>1.9832799800000001</v>
+        <v>1.8307834700000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>2.03813975</v>
+        <v>1.9832799800000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>2.5680349100000002</v>
+        <v>2.03813975</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3.3239611</v>
+        <v>2.5680349100000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3.3239611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>9.4979057499999993</v>
       </c>
     </row>
@@ -11216,10 +11738,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8106E5B2-B14C-4D43-A549-A877ED3F05C8}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11241,57 +11763,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>14.95028956</v>
+        <v>11.78694205</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>14.97898644</v>
+        <v>14.95028956</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>15.804132709999999</v>
+        <v>14.97898644</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>17.458329249999998</v>
+        <v>15.804132709999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>20.487011620000001</v>
+        <v>17.458329249999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>40.758555159999901</v>
+        <v>20.487011620000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>40.758555159999901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>114.79287643000001</v>
       </c>
     </row>
@@ -11305,10 +11835,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366854D3-7AF3-42FA-9AA6-AAC99CC3A865}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11330,57 +11860,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>254.56378469999899</v>
+        <v>141.95498197000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>293.50785430000002</v>
+        <v>254.56378469999899</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>520.28780630000006</v>
+        <v>293.50785430000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>668.71213799999998</v>
+        <v>520.28780630000006</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>783.84921410000004</v>
+        <v>668.71213799999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1370.4911919000001</v>
+        <v>783.84921410000004</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1370.4911919000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1665.70049941</v>
       </c>
     </row>
@@ -11394,10 +11932,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6435995-130F-4275-BEFA-DA63844C6E4E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11419,57 +11957,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>4.0783493245900004</v>
+        <v>2.2383880220400001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>6.5596533903500003</v>
+        <v>4.0783493245900004</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>7.6781641994600003</v>
+        <v>6.5596533903500003</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>9.5149915941999996</v>
+        <v>7.6781641994600003</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>14.0069496587</v>
+        <v>9.5149915941999996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>20.2670184899454</v>
+        <v>14.0069496587</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>20.2670184899454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>25.890947173499999</v>
       </c>
     </row>
@@ -11483,10 +12029,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD42EA5-0816-4C82-A2D7-4FB9D6B32FCD}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11516,41 +12062,49 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>231.331482045</v>
+        <v>188.008137769</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>233.78566523000001</v>
+        <v>231.331482045</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>237.10451896699999</v>
+        <v>233.78566523000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>260.73004638800001</v>
+        <v>237.10451896699999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>260.73004638800001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>2033.280099028</v>
       </c>
     </row>
